--- a/histogramTest.xlsx
+++ b/histogramTest.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acreg\Desktop\final year\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acreg\Desktop\final_year\Project\ImageSearchEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB2919-B1B3-4FC0-8F2D-A649F07EFCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E725C-31F5-4650-A8D2-533DDEB628B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenCV" sheetId="1" r:id="rId1"/>
+    <sheet name="RGB 15 bins" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="16">
   <si>
     <t>Crowds001.jpg</t>
   </si>
@@ -418,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,4 +923,441 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9387A-6F71-4667-994B-FC3A199E07A1}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>